--- a/Spec_1.xlsx
+++ b/Spec_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svokhmyanina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svokhmyanina\.spyder-py3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1052">
   <si>
     <t>Код товара</t>
   </si>
@@ -3174,6 +3174,15 @@
   </si>
   <si>
     <t>Тип элемента</t>
+  </si>
+  <si>
+    <t>Имя товара</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3532,7 @@
   <dimension ref="A1:K599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3547,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1049</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3547,8 +3558,12 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1051</v>
+      </c>
       <c r="K1" s="5" t="s">
         <v>1048</v>
       </c>
